--- a/DataDrivenWithTestNgDataProviderAndExcel/DataDriven.xlsx
+++ b/DataDrivenWithTestNgDataProviderAndExcel/DataDriven.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>DataProviderWithExcel_001</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>testuser_3</t>
+  </si>
+  <si>
+    <t>testuser_4</t>
   </si>
 </sst>
 </file>
@@ -392,13 +398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -430,6 +440,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -437,6 +463,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
